--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.8755606021406155</v>
+        <v>0.7507613260376965</v>
       </c>
       <c r="D2">
-        <v>0.3813941876323781</v>
+        <v>0.4607516456569449</v>
       </c>
       <c r="E2">
         <v>5.298189568625122</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-2.158223281211579</v>
+        <v>-2.336156315807316</v>
       </c>
       <c r="D3">
-        <v>0.03105184855886955</v>
+        <v>0.02899750939657242</v>
       </c>
       <c r="E3">
         <v>5.298189568625122</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.056440946516672</v>
+        <v>-1.297421994231022</v>
       </c>
       <c r="D4">
-        <v>0.2909187870624113</v>
+        <v>0.2079267239804898</v>
       </c>
       <c r="E4">
         <v>5.298189568625122</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-5.005816534065409</v>
+        <v>-3.35773819112655</v>
       </c>
       <c r="D5">
-        <v>6.146792768113585E-07</v>
+        <v>0.00284382980167952</v>
       </c>
       <c r="E5">
         <v>5.298189568625122</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-2.439060488471177</v>
+        <v>-2.428657215326825</v>
       </c>
       <c r="D6">
-        <v>0.01482847213775917</v>
+        <v>0.02378098985670718</v>
       </c>
       <c r="E6">
         <v>4.943906108250702</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.316295267841618</v>
+        <v>-1.29897213335943</v>
       </c>
       <c r="D7">
-        <v>0.1882546221718129</v>
+        <v>0.2074034518480614</v>
       </c>
       <c r="E7">
         <v>4.943906108250702</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-4.857684208626619</v>
+        <v>-3.221075724846067</v>
       </c>
       <c r="D8">
-        <v>1.29822630090537E-06</v>
+        <v>0.003931772905708897</v>
       </c>
       <c r="E8">
         <v>4.943906108250702</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.5800007462977959</v>
+        <v>0.4969166119581448</v>
       </c>
       <c r="D9">
-        <v>0.5619919366172546</v>
+        <v>0.6241772515538524</v>
       </c>
       <c r="E9">
         <v>6.27154863338447</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.648471539054706</v>
+        <v>-2.72614844384788</v>
       </c>
       <c r="D10">
-        <v>0.008161421192719454</v>
+        <v>0.01233208724704737</v>
       </c>
       <c r="E10">
         <v>6.27154863338447</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.827607359129637</v>
+        <v>-2.153339967598714</v>
       </c>
       <c r="D11">
-        <v>0.004745363081773535</v>
+        <v>0.04251475039955421</v>
       </c>
       <c r="E11">
         <v>5.924689551030646</v>
